--- a/VolunteerInformation.xlsx
+++ b/VolunteerInformation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Zayed</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Fawad</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,6 +969,28 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <v>9054619350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>6474061810</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
@@ -964,9 +998,10 @@
     <hyperlink ref="B20" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5" display="tel:416-737-7706"/>
+    <hyperlink ref="B25" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
